--- a/621/Assignment4/Question2/swap_data.xlsx
+++ b/621/Assignment4/Question2/swap_data.xlsx
@@ -1043,7 +1043,7 @@
   <dimension ref="A1:BH33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1130,62 +1130,62 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="12">
-        <v>1.83</v>
-      </c>
-      <c r="D3" s="12">
-        <v>1.9</v>
-      </c>
-      <c r="E3" s="12">
-        <v>2</v>
-      </c>
-      <c r="F3" s="12">
-        <v>2.09</v>
-      </c>
-      <c r="G3" s="12">
-        <v>2.17</v>
-      </c>
-      <c r="H3" s="12">
-        <v>2.42</v>
-      </c>
-      <c r="I3" s="12">
-        <v>2.58</v>
-      </c>
-      <c r="J3" s="12">
-        <v>2.69</v>
-      </c>
-      <c r="K3" s="12">
-        <v>2.78</v>
-      </c>
-      <c r="L3" s="12">
-        <v>2.84</v>
-      </c>
-      <c r="M3" s="12">
+      <c r="C3">
+        <v>2.44</v>
+      </c>
+      <c r="D3">
+        <v>2.48</v>
+      </c>
+      <c r="E3">
+        <v>2.52</v>
+      </c>
+      <c r="F3">
+        <v>2.56</v>
+      </c>
+      <c r="G3">
+        <v>2.6</v>
+      </c>
+      <c r="H3">
+        <v>2.72</v>
+      </c>
+      <c r="I3">
+        <v>2.8</v>
+      </c>
+      <c r="J3">
+        <v>2.85</v>
+      </c>
+      <c r="K3">
         <v>2.9</v>
       </c>
-      <c r="N3" s="12">
+      <c r="L3">
+        <v>2.92</v>
+      </c>
+      <c r="M3">
+        <v>2.93</v>
+      </c>
+      <c r="N3">
         <v>2.94</v>
       </c>
-      <c r="O3" s="12">
-        <v>2.97</v>
-      </c>
-      <c r="P3" s="12">
-        <v>2.96</v>
-      </c>
-      <c r="Q3" s="12">
-        <v>2.96</v>
-      </c>
-      <c r="R3" s="12">
+      <c r="O3">
+        <v>2.95</v>
+      </c>
+      <c r="P3">
+        <v>2.94</v>
+      </c>
+      <c r="Q3">
         <v>2.91</v>
       </c>
-      <c r="S3" s="12">
-        <v>2.79</v>
-      </c>
-      <c r="T3" s="12">
-        <v>2.71</v>
-      </c>
-      <c r="U3" s="12">
+      <c r="R3">
+        <v>2.86</v>
+      </c>
+      <c r="S3">
+        <v>2.74</v>
+      </c>
+      <c r="T3">
         <v>2.67</v>
+      </c>
+      <c r="U3">
+        <v>2.61</v>
       </c>
       <c r="V3"/>
       <c r="W3"/>
@@ -1222,67 +1222,67 @@
     </row>
     <row r="4" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="12">
-        <v>41.98</v>
-      </c>
-      <c r="D4" s="12">
-        <v>65.36</v>
-      </c>
-      <c r="E4" s="12">
-        <v>67.08</v>
-      </c>
-      <c r="F4" s="12">
-        <v>70.569999999999993</v>
-      </c>
-      <c r="G4" s="12">
-        <v>76.17</v>
-      </c>
-      <c r="H4" s="12">
-        <v>84.47</v>
-      </c>
-      <c r="I4" s="13">
-        <v>87.45</v>
-      </c>
-      <c r="J4" s="12">
-        <v>91.49</v>
-      </c>
-      <c r="K4" s="12">
-        <v>90.5</v>
-      </c>
-      <c r="L4" s="12">
-        <v>89.56</v>
-      </c>
-      <c r="M4" s="12">
-        <v>88.02</v>
-      </c>
-      <c r="N4" s="12">
-        <v>86.14</v>
-      </c>
-      <c r="O4" s="12">
-        <v>83.02</v>
-      </c>
-      <c r="P4" s="12">
-        <v>80.069999999999993</v>
-      </c>
-      <c r="Q4" s="12">
-        <v>79.39</v>
-      </c>
-      <c r="R4" s="12">
-        <v>77.61</v>
-      </c>
-      <c r="S4" s="12">
-        <v>72.59</v>
-      </c>
-      <c r="T4" s="12">
-        <v>69.94</v>
-      </c>
-      <c r="U4" s="12">
-        <v>73.099999999999994</v>
+      <c r="C4">
+        <v>72.92</v>
+      </c>
+      <c r="D4">
+        <v>81.33</v>
+      </c>
+      <c r="E4">
+        <v>84.4</v>
+      </c>
+      <c r="F4">
+        <v>85.65</v>
+      </c>
+      <c r="G4">
+        <v>86.28</v>
+      </c>
+      <c r="H4">
+        <v>87.02</v>
+      </c>
+      <c r="I4">
+        <v>87.87</v>
+      </c>
+      <c r="J4">
+        <v>87.31</v>
+      </c>
+      <c r="K4">
+        <v>90.62</v>
+      </c>
+      <c r="L4">
+        <v>85.17</v>
+      </c>
+      <c r="M4">
+        <v>83.76</v>
+      </c>
+      <c r="N4">
+        <v>81.19</v>
+      </c>
+      <c r="O4">
+        <v>79.22</v>
+      </c>
+      <c r="P4">
+        <v>77.540000000000006</v>
+      </c>
+      <c r="Q4">
+        <v>75.959999999999994</v>
+      </c>
+      <c r="R4">
+        <v>73.59</v>
+      </c>
+      <c r="S4">
+        <v>68.23</v>
+      </c>
+      <c r="T4">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="U4">
+        <v>58.15</v>
       </c>
     </row>
     <row r="5" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1324,7 +1324,7 @@
         <v>28</v>
       </c>
       <c r="B6" s="13">
-        <v>87.45</v>
+        <v>2.94</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1374,49 +1374,125 @@
     <row r="8" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
+      <c r="C8" s="12">
+        <v>1.83</v>
+      </c>
+      <c r="D8" s="12">
+        <v>1.9</v>
+      </c>
+      <c r="E8" s="12">
+        <v>2</v>
+      </c>
+      <c r="F8" s="12">
+        <v>2.09</v>
+      </c>
+      <c r="G8" s="12">
+        <v>2.17</v>
+      </c>
+      <c r="H8" s="12">
+        <v>2.42</v>
+      </c>
+      <c r="I8" s="13">
+        <v>2.58</v>
+      </c>
+      <c r="J8" s="12">
+        <v>2.69</v>
+      </c>
+      <c r="K8" s="12">
+        <v>2.78</v>
+      </c>
+      <c r="L8" s="12">
+        <v>2.84</v>
+      </c>
+      <c r="M8" s="12">
+        <v>2.9</v>
+      </c>
+      <c r="N8" s="12">
+        <v>2.94</v>
+      </c>
+      <c r="O8" s="12">
+        <v>2.97</v>
+      </c>
+      <c r="P8" s="12">
+        <v>2.96</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>2.96</v>
+      </c>
+      <c r="R8" s="12">
+        <v>2.91</v>
+      </c>
+      <c r="S8" s="12">
+        <v>2.79</v>
+      </c>
+      <c r="T8" s="12">
+        <v>2.71</v>
+      </c>
+      <c r="U8" s="12">
+        <v>2.67</v>
+      </c>
       <c r="V8" s="1"/>
     </row>
     <row r="9" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
+      <c r="C9" s="12">
+        <v>41.98</v>
+      </c>
+      <c r="D9" s="12">
+        <v>65.36</v>
+      </c>
+      <c r="E9" s="12">
+        <v>67.08</v>
+      </c>
+      <c r="F9" s="12">
+        <v>70.569999999999993</v>
+      </c>
+      <c r="G9" s="12">
+        <v>76.17</v>
+      </c>
+      <c r="H9" s="12">
+        <v>84.47</v>
+      </c>
+      <c r="I9" s="12">
+        <v>87.45</v>
+      </c>
+      <c r="J9" s="12">
+        <v>91.49</v>
+      </c>
+      <c r="K9" s="12">
+        <v>90.5</v>
+      </c>
+      <c r="L9" s="12">
+        <v>89.56</v>
+      </c>
+      <c r="M9" s="12">
+        <v>88.02</v>
+      </c>
+      <c r="N9" s="12">
+        <v>86.14</v>
+      </c>
+      <c r="O9" s="12">
+        <v>83.02</v>
+      </c>
+      <c r="P9" s="12">
+        <v>80.069999999999993</v>
+      </c>
+      <c r="Q9" s="12">
+        <v>79.39</v>
+      </c>
+      <c r="R9" s="12">
+        <v>77.61</v>
+      </c>
+      <c r="S9" s="12">
+        <v>72.59</v>
+      </c>
+      <c r="T9" s="12">
+        <v>69.94</v>
+      </c>
+      <c r="U9" s="12">
+        <v>73.099999999999994</v>
+      </c>
       <c r="V9" s="1"/>
     </row>
     <row r="10" spans="1:60" x14ac:dyDescent="0.25">
@@ -1778,7 +1854,7 @@
       <c r="P19" s="11">
         <v>2.92</v>
       </c>
-      <c r="Q19" s="11">
+      <c r="Q19" s="13">
         <v>2.89</v>
       </c>
       <c r="R19" s="11">
@@ -1882,7 +1958,7 @@
       <c r="P20" s="11">
         <v>77.81</v>
       </c>
-      <c r="Q20" s="13">
+      <c r="Q20" s="11">
         <v>75.430000000000007</v>
       </c>
       <c r="R20" s="11">
@@ -1970,7 +2046,7 @@
         <v>28</v>
       </c>
       <c r="B23" s="13">
-        <v>75.430000000000007</v>
+        <v>2.89</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2354,7 +2430,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P4" sqref="P4:P22"/>
+      <selection activeCell="A4" sqref="A4:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/621/Assignment4/Question2/swap_data.xlsx
+++ b/621/Assignment4/Question2/swap_data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
   <si>
     <t>Maturity</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>Implied volatilities from the market</t>
-  </si>
-  <si>
-    <t>Today's Date</t>
   </si>
   <si>
     <t>Vol</t>
@@ -107,6 +104,24 @@
   </si>
   <si>
     <t>Spot Price, F</t>
+  </si>
+  <si>
+    <t>4years</t>
+  </si>
+  <si>
+    <t>Sorted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unsorted </t>
+  </si>
+  <si>
+    <t>10 years</t>
+  </si>
+  <si>
+    <t>20 years</t>
+  </si>
+  <si>
+    <t>7 years</t>
   </si>
 </sst>
 </file>
@@ -274,7 +289,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -475,6 +490,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,7 +693,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -683,6 +703,7 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1040,10 +1061,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BH33"/>
+  <dimension ref="A1:BH48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1065,126 +1086,126 @@
     </row>
     <row r="2" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="C2" t="s">
+      <c r="C2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="U2" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="3" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="11">
         <v>2.44</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="11">
         <v>2.48</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="11">
         <v>2.52</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="11">
         <v>2.56</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="11">
         <v>2.6</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="11">
         <v>2.72</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="11">
         <v>2.8</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="11">
         <v>2.85</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="11">
         <v>2.9</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="11">
         <v>2.92</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="11">
         <v>2.93</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="11">
         <v>2.94</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="11">
         <v>2.95</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="12">
         <v>2.94</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="11">
         <v>2.91</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="11">
         <v>2.86</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="11">
         <v>2.74</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="11">
         <v>2.67</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="11">
         <v>2.61</v>
       </c>
       <c r="V3"/>
@@ -1221,67 +1242,67 @@
       <c r="BA3"/>
     </row>
     <row r="4" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="11">
         <v>72.92</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="11">
         <v>81.33</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="11">
         <v>84.4</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="11">
         <v>85.65</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="11">
         <v>86.28</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="11">
         <v>87.02</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="11">
         <v>87.87</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="11">
         <v>87.31</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="11">
         <v>90.62</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="11">
         <v>85.17</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="11">
         <v>83.76</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="11">
         <v>81.19</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="11">
         <v>79.22</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="11">
         <v>77.540000000000006</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="11">
         <v>75.959999999999994</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="11">
         <v>73.59</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="11">
         <v>68.23</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="11">
         <v>68.599999999999994</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="11">
         <v>58.15</v>
       </c>
     </row>
@@ -1321,9 +1342,9 @@
     </row>
     <row r="6" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="13">
+        <v>27</v>
+      </c>
+      <c r="B6" s="12">
         <v>2.94</v>
       </c>
       <c r="C6" s="1"/>
@@ -1374,125 +1395,11 @@
     <row r="8" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="12">
-        <v>1.83</v>
-      </c>
-      <c r="D8" s="12">
-        <v>1.9</v>
-      </c>
-      <c r="E8" s="12">
-        <v>2</v>
-      </c>
-      <c r="F8" s="12">
-        <v>2.09</v>
-      </c>
-      <c r="G8" s="12">
-        <v>2.17</v>
-      </c>
-      <c r="H8" s="12">
-        <v>2.42</v>
-      </c>
-      <c r="I8" s="13">
-        <v>2.58</v>
-      </c>
-      <c r="J8" s="12">
-        <v>2.69</v>
-      </c>
-      <c r="K8" s="12">
-        <v>2.78</v>
-      </c>
-      <c r="L8" s="12">
-        <v>2.84</v>
-      </c>
-      <c r="M8" s="12">
-        <v>2.9</v>
-      </c>
-      <c r="N8" s="12">
-        <v>2.94</v>
-      </c>
-      <c r="O8" s="12">
-        <v>2.97</v>
-      </c>
-      <c r="P8" s="12">
-        <v>2.96</v>
-      </c>
-      <c r="Q8" s="12">
-        <v>2.96</v>
-      </c>
-      <c r="R8" s="12">
-        <v>2.91</v>
-      </c>
-      <c r="S8" s="12">
-        <v>2.79</v>
-      </c>
-      <c r="T8" s="12">
-        <v>2.71</v>
-      </c>
-      <c r="U8" s="12">
-        <v>2.67</v>
-      </c>
       <c r="V8" s="1"/>
     </row>
     <row r="9" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="12">
-        <v>41.98</v>
-      </c>
-      <c r="D9" s="12">
-        <v>65.36</v>
-      </c>
-      <c r="E9" s="12">
-        <v>67.08</v>
-      </c>
-      <c r="F9" s="12">
-        <v>70.569999999999993</v>
-      </c>
-      <c r="G9" s="12">
-        <v>76.17</v>
-      </c>
-      <c r="H9" s="12">
-        <v>84.47</v>
-      </c>
-      <c r="I9" s="12">
-        <v>87.45</v>
-      </c>
-      <c r="J9" s="12">
-        <v>91.49</v>
-      </c>
-      <c r="K9" s="12">
-        <v>90.5</v>
-      </c>
-      <c r="L9" s="12">
-        <v>89.56</v>
-      </c>
-      <c r="M9" s="12">
-        <v>88.02</v>
-      </c>
-      <c r="N9" s="12">
-        <v>86.14</v>
-      </c>
-      <c r="O9" s="12">
-        <v>83.02</v>
-      </c>
-      <c r="P9" s="12">
-        <v>80.069999999999993</v>
-      </c>
-      <c r="Q9" s="12">
-        <v>79.39</v>
-      </c>
-      <c r="R9" s="12">
-        <v>77.61</v>
-      </c>
-      <c r="S9" s="12">
-        <v>72.59</v>
-      </c>
-      <c r="T9" s="12">
-        <v>69.94</v>
-      </c>
-      <c r="U9" s="12">
-        <v>73.099999999999994</v>
-      </c>
       <c r="V9" s="1"/>
     </row>
     <row r="10" spans="1:60" x14ac:dyDescent="0.25">
@@ -1551,13 +1458,8 @@
       <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="4">
-        <f ca="1">TODAY()</f>
-        <v>42847</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="4"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1747,62 +1649,62 @@
     </row>
     <row r="18" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="C18" t="s">
+      <c r="C18" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="S18" t="s">
+      <c r="T18" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="T18" t="s">
+      <c r="U18" s="13" t="s">
         <v>24</v>
-      </c>
-      <c r="U18" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:60" x14ac:dyDescent="0.25">
@@ -1812,64 +1714,63 @@
       <c r="B19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="10">
         <v>2.52</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="10">
         <v>2.5499999999999998</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <v>2.59</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="10">
         <v>2.62</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="10">
         <v>2.65</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="10">
         <v>2.75</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="10">
         <v>2.82</v>
       </c>
-      <c r="J19" s="11">
+      <c r="J19" s="10">
         <v>2.87</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K19" s="10">
         <v>2.9</v>
       </c>
-      <c r="L19" s="11">
+      <c r="L19" s="10">
         <v>2.92</v>
       </c>
-      <c r="M19" s="11">
+      <c r="M19" s="10">
         <v>2.93</v>
       </c>
-      <c r="N19" s="11">
+      <c r="N19" s="10">
         <v>2.94</v>
       </c>
-      <c r="O19" s="11">
+      <c r="O19" s="10">
         <v>2.93</v>
       </c>
-      <c r="P19" s="11">
+      <c r="P19" s="10">
         <v>2.92</v>
       </c>
-      <c r="Q19" s="13">
+      <c r="Q19" s="12">
         <v>2.89</v>
       </c>
-      <c r="R19" s="11">
+      <c r="R19" s="10">
         <v>2.84</v>
       </c>
-      <c r="S19" s="11">
+      <c r="S19" s="10">
         <v>2.73</v>
       </c>
-      <c r="T19" s="11">
+      <c r="T19" s="10">
         <v>2.66</v>
       </c>
-      <c r="U19" s="11">
+      <c r="U19" s="10">
         <v>2.59</v>
       </c>
-      <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
@@ -1910,70 +1811,69 @@
       <c r="BH19" s="1"/>
     </row>
     <row r="20" spans="1:60" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20" s="8">
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="11">
+        <v>3</v>
+      </c>
+      <c r="C20" s="10">
         <v>73.680000000000007</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="10">
         <v>80.44</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="10">
         <v>83.64</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="10">
         <v>85</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="10">
         <v>85.38</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="10">
         <v>86.76</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="10">
         <v>86.79</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J20" s="10">
         <v>87.34</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K20" s="10">
         <v>89.2</v>
       </c>
-      <c r="L20" s="11">
+      <c r="L20" s="10">
         <v>83.26</v>
       </c>
-      <c r="M20" s="11">
+      <c r="M20" s="10">
         <v>84.04</v>
       </c>
-      <c r="N20" s="11">
+      <c r="N20" s="10">
         <v>79.489999999999995</v>
       </c>
-      <c r="O20" s="11">
+      <c r="O20" s="10">
         <v>77.540000000000006</v>
       </c>
-      <c r="P20" s="11">
+      <c r="P20" s="10">
         <v>77.81</v>
       </c>
-      <c r="Q20" s="11">
+      <c r="Q20" s="10">
         <v>75.430000000000007</v>
       </c>
-      <c r="R20" s="11">
+      <c r="R20" s="10">
         <v>71.849999999999994</v>
       </c>
-      <c r="S20" s="11">
+      <c r="S20" s="10">
         <v>67.400000000000006</v>
       </c>
-      <c r="T20" s="11">
+      <c r="T20" s="10">
         <v>66.64</v>
       </c>
-      <c r="U20" s="11">
+      <c r="U20" s="10">
         <v>60.71</v>
       </c>
-      <c r="V20" s="1"/>
     </row>
     <row r="21" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
@@ -1997,7 +1897,6 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
@@ -2043,9 +1942,9 @@
     </row>
     <row r="23" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="13">
+        <v>27</v>
+      </c>
+      <c r="B23" s="12">
         <v>2.89</v>
       </c>
       <c r="C23" s="1"/>
@@ -2067,7 +1966,6 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
@@ -2112,28 +2010,7 @@
     </row>
     <row r="25" spans="1:60" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
+      <c r="D25" s="3"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
@@ -2176,29 +2053,6 @@
     </row>
     <row r="27" spans="1:60" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
@@ -2239,29 +2093,6 @@
       <c r="B28" s="3"/>
     </row>
     <row r="29" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
-      <c r="X29" s="1"/>
-      <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
@@ -2299,29 +2130,6 @@
       <c r="BH29" s="1"/>
     </row>
     <row r="31" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
@@ -2358,30 +2166,7 @@
       <c r="BG31" s="1"/>
       <c r="BH31" s="1"/>
     </row>
-    <row r="33" spans="3:60" x14ac:dyDescent="0.25">
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
+    <row r="33" spans="1:60" x14ac:dyDescent="0.25">
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
@@ -2418,50 +2203,162 @@
       <c r="BG33" s="1"/>
       <c r="BH33" s="1"/>
     </row>
+    <row r="37" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+    </row>
+    <row r="39" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="B39" s="3"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+    </row>
+    <row r="46" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="B47" s="3"/>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="B48" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:AL22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B22"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="M1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="S1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>2.58</v>
+      </c>
+      <c r="O2">
+        <v>2.89</v>
+      </c>
+      <c r="Z2">
+        <v>2.94</v>
+      </c>
+      <c r="AC2">
+        <v>2.68</v>
+      </c>
+      <c r="AG2">
+        <v>2.93</v>
+      </c>
+      <c r="AK2">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.83</v>
       </c>
@@ -2486,8 +2383,44 @@
       <c r="P4">
         <v>73.680000000000007</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S4">
+        <v>1.98</v>
+      </c>
+      <c r="T4">
+        <v>65.02</v>
+      </c>
+      <c r="W4">
+        <v>1.98</v>
+      </c>
+      <c r="X4">
+        <v>65.02</v>
+      </c>
+      <c r="Z4">
+        <v>2.44</v>
+      </c>
+      <c r="AA4">
+        <v>72.92</v>
+      </c>
+      <c r="AC4">
+        <v>2.66</v>
+      </c>
+      <c r="AD4">
+        <v>73.12</v>
+      </c>
+      <c r="AG4">
+        <v>2.27</v>
+      </c>
+      <c r="AH4">
+        <v>75.92</v>
+      </c>
+      <c r="AK4">
+        <v>2.6</v>
+      </c>
+      <c r="AL4">
+        <v>73.569999999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1.9</v>
       </c>
@@ -2512,8 +2445,44 @@
       <c r="P5">
         <v>80.44</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S5">
+        <v>2.04</v>
+      </c>
+      <c r="T5">
+        <v>74.23</v>
+      </c>
+      <c r="W5">
+        <v>2.04</v>
+      </c>
+      <c r="X5">
+        <v>74.23</v>
+      </c>
+      <c r="Z5">
+        <v>2.48</v>
+      </c>
+      <c r="AA5">
+        <v>81.33</v>
+      </c>
+      <c r="AC5">
+        <v>2.68</v>
+      </c>
+      <c r="AD5">
+        <v>77.47</v>
+      </c>
+      <c r="AG5">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="AH5">
+        <v>76.72</v>
+      </c>
+      <c r="AK5">
+        <v>2.62</v>
+      </c>
+      <c r="AL5">
+        <v>77.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2538,8 +2507,44 @@
       <c r="P6">
         <v>83.64</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S6">
+        <v>2.12</v>
+      </c>
+      <c r="T6">
+        <v>75.010000000000005</v>
+      </c>
+      <c r="W6">
+        <v>2.12</v>
+      </c>
+      <c r="X6">
+        <v>75.010000000000005</v>
+      </c>
+      <c r="Z6">
+        <v>2.52</v>
+      </c>
+      <c r="AA6">
+        <v>84.4</v>
+      </c>
+      <c r="AC6">
+        <v>2.7</v>
+      </c>
+      <c r="AD6">
+        <v>84.39</v>
+      </c>
+      <c r="AG6">
+        <v>2.37</v>
+      </c>
+      <c r="AH6">
+        <v>83.3</v>
+      </c>
+      <c r="AK6">
+        <v>2.65</v>
+      </c>
+      <c r="AL6">
+        <v>81.400000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2.09</v>
       </c>
@@ -2564,8 +2569,44 @@
       <c r="P7">
         <v>85</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T7">
+        <v>71.25</v>
+      </c>
+      <c r="W7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="X7">
+        <v>71.25</v>
+      </c>
+      <c r="Z7">
+        <v>2.56</v>
+      </c>
+      <c r="AA7">
+        <v>85.65</v>
+      </c>
+      <c r="AC7">
+        <v>2.72</v>
+      </c>
+      <c r="AD7">
+        <v>82.08</v>
+      </c>
+      <c r="AG7">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="AH7">
+        <v>84.96</v>
+      </c>
+      <c r="AK7">
+        <v>2.68</v>
+      </c>
+      <c r="AL7">
+        <v>83.03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2.17</v>
       </c>
@@ -2590,8 +2631,44 @@
       <c r="P8">
         <v>85.38</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S8">
+        <v>2.27</v>
+      </c>
+      <c r="T8">
+        <v>74.83</v>
+      </c>
+      <c r="W8">
+        <v>2.27</v>
+      </c>
+      <c r="X8">
+        <v>74.83</v>
+      </c>
+      <c r="Z8">
+        <v>2.6</v>
+      </c>
+      <c r="AA8">
+        <v>86.28</v>
+      </c>
+      <c r="AC8">
+        <v>2.74</v>
+      </c>
+      <c r="AD8">
+        <v>82.26</v>
+      </c>
+      <c r="AG8">
+        <v>2.48</v>
+      </c>
+      <c r="AH8">
+        <v>85.28</v>
+      </c>
+      <c r="AK8">
+        <v>2.7</v>
+      </c>
+      <c r="AL8">
+        <v>83.22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2.42</v>
       </c>
@@ -2616,8 +2693,44 @@
       <c r="P9">
         <v>86.76</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S9">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="T9">
+        <v>79.760000000000005</v>
+      </c>
+      <c r="W9">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="X9">
+        <v>79.760000000000005</v>
+      </c>
+      <c r="Z9">
+        <v>2.72</v>
+      </c>
+      <c r="AA9">
+        <v>87.02</v>
+      </c>
+      <c r="AC9">
+        <v>2.8</v>
+      </c>
+      <c r="AD9">
+        <v>84.18</v>
+      </c>
+      <c r="AG9">
+        <v>2.63</v>
+      </c>
+      <c r="AH9">
+        <v>83.29</v>
+      </c>
+      <c r="AK9">
+        <v>2.78</v>
+      </c>
+      <c r="AL9">
+        <v>85.88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2.58</v>
       </c>
@@ -2642,8 +2755,44 @@
       <c r="P10">
         <v>86.79</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S10">
+        <v>2.63</v>
+      </c>
+      <c r="T10">
+        <v>87.19</v>
+      </c>
+      <c r="W10">
+        <v>2.63</v>
+      </c>
+      <c r="X10">
+        <v>87.19</v>
+      </c>
+      <c r="Z10">
+        <v>2.8</v>
+      </c>
+      <c r="AA10">
+        <v>87.87</v>
+      </c>
+      <c r="AC10">
+        <v>2.84</v>
+      </c>
+      <c r="AD10">
+        <v>82.63</v>
+      </c>
+      <c r="AG10">
+        <v>2.74</v>
+      </c>
+      <c r="AH10">
+        <v>88.45</v>
+      </c>
+      <c r="AK10">
+        <v>2.84</v>
+      </c>
+      <c r="AL10">
+        <v>84.54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2.67</v>
       </c>
@@ -2668,8 +2817,44 @@
       <c r="P11">
         <v>87.34</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S11">
+        <v>2.73</v>
+      </c>
+      <c r="T11">
+        <v>90.47</v>
+      </c>
+      <c r="W11">
+        <v>2.66</v>
+      </c>
+      <c r="X11">
+        <v>72.06</v>
+      </c>
+      <c r="Z11">
+        <v>2.85</v>
+      </c>
+      <c r="AA11">
+        <v>87.31</v>
+      </c>
+      <c r="AC11">
+        <v>2.86</v>
+      </c>
+      <c r="AD11">
+        <v>81.349999999999994</v>
+      </c>
+      <c r="AG11">
+        <v>2.81</v>
+      </c>
+      <c r="AH11">
+        <v>89.22</v>
+      </c>
+      <c r="AK11">
+        <v>2.87</v>
+      </c>
+      <c r="AL11">
+        <v>87.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2.69</v>
       </c>
@@ -2694,8 +2879,44 @@
       <c r="P12">
         <v>89.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S12">
+        <v>2.81</v>
+      </c>
+      <c r="T12">
+        <v>90.08</v>
+      </c>
+      <c r="W12">
+        <v>2.7</v>
+      </c>
+      <c r="X12">
+        <v>68.650000000000006</v>
+      </c>
+      <c r="Z12">
+        <v>2.9</v>
+      </c>
+      <c r="AA12">
+        <v>90.62</v>
+      </c>
+      <c r="AC12">
+        <v>2.88</v>
+      </c>
+      <c r="AD12">
+        <v>83.39</v>
+      </c>
+      <c r="AG12">
+        <v>2.87</v>
+      </c>
+      <c r="AH12">
+        <v>88.66</v>
+      </c>
+      <c r="AK12">
+        <v>2.9</v>
+      </c>
+      <c r="AL12">
+        <v>87.11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2.71</v>
       </c>
@@ -2720,8 +2941,44 @@
       <c r="P13">
         <v>83.26</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S13">
+        <v>2.87</v>
+      </c>
+      <c r="T13">
+        <v>89.07</v>
+      </c>
+      <c r="W13">
+        <v>2.73</v>
+      </c>
+      <c r="X13">
+        <v>90.47</v>
+      </c>
+      <c r="Z13">
+        <v>2.92</v>
+      </c>
+      <c r="AA13">
+        <v>85.17</v>
+      </c>
+      <c r="AC13">
+        <v>2.88</v>
+      </c>
+      <c r="AD13">
+        <v>78.349999999999994</v>
+      </c>
+      <c r="AG13">
+        <v>2.91</v>
+      </c>
+      <c r="AH13">
+        <v>86.92</v>
+      </c>
+      <c r="AK13">
+        <v>2.91</v>
+      </c>
+      <c r="AL13">
+        <v>80.33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2.78</v>
       </c>
@@ -2746,8 +3003,44 @@
       <c r="P14">
         <v>84.04</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S14">
+        <v>2.92</v>
+      </c>
+      <c r="T14">
+        <v>90.87</v>
+      </c>
+      <c r="W14">
+        <v>2.79</v>
+      </c>
+      <c r="X14">
+        <v>70.8</v>
+      </c>
+      <c r="Z14">
+        <v>2.93</v>
+      </c>
+      <c r="AA14">
+        <v>83.76</v>
+      </c>
+      <c r="AC14">
+        <v>2.88</v>
+      </c>
+      <c r="AD14">
+        <v>79.290000000000006</v>
+      </c>
+      <c r="AG14">
+        <v>2.93</v>
+      </c>
+      <c r="AH14">
+        <v>85.81</v>
+      </c>
+      <c r="AK14">
+        <v>2.92</v>
+      </c>
+      <c r="AL14">
+        <v>84.15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2.79</v>
       </c>
@@ -2772,8 +3065,44 @@
       <c r="P15">
         <v>79.489999999999995</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S15">
+        <v>2.95</v>
+      </c>
+      <c r="T15">
+        <v>84.13</v>
+      </c>
+      <c r="W15">
+        <v>2.81</v>
+      </c>
+      <c r="X15">
+        <v>90.08</v>
+      </c>
+      <c r="Z15">
+        <v>2.94</v>
+      </c>
+      <c r="AA15">
+        <v>81.19</v>
+      </c>
+      <c r="AC15">
+        <v>2.88</v>
+      </c>
+      <c r="AD15">
+        <v>74.78</v>
+      </c>
+      <c r="AG15">
+        <v>2.95</v>
+      </c>
+      <c r="AH15">
+        <v>83.34</v>
+      </c>
+      <c r="AK15">
+        <v>2.91</v>
+      </c>
+      <c r="AL15">
+        <v>76.680000000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2.84</v>
       </c>
@@ -2798,8 +3127,44 @@
       <c r="P16">
         <v>77.540000000000006</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S16">
+        <v>2.96</v>
+      </c>
+      <c r="T16">
+        <v>82.76</v>
+      </c>
+      <c r="W16">
+        <v>2.87</v>
+      </c>
+      <c r="X16">
+        <v>89.07</v>
+      </c>
+      <c r="Z16">
+        <v>2.95</v>
+      </c>
+      <c r="AA16">
+        <v>79.22</v>
+      </c>
+      <c r="AC16">
+        <v>2.87</v>
+      </c>
+      <c r="AD16">
+        <v>72.56</v>
+      </c>
+      <c r="AG16">
+        <v>2.96</v>
+      </c>
+      <c r="AH16">
+        <v>81.19</v>
+      </c>
+      <c r="AK16">
+        <v>2.91</v>
+      </c>
+      <c r="AL16">
+        <v>74.87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2.9</v>
       </c>
@@ -2824,8 +3189,44 @@
       <c r="P17">
         <v>77.81</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S17">
+        <v>2.96</v>
+      </c>
+      <c r="T17">
+        <v>79.8</v>
+      </c>
+      <c r="W17">
+        <v>2.91</v>
+      </c>
+      <c r="X17">
+        <v>71.41</v>
+      </c>
+      <c r="Z17">
+        <v>2.94</v>
+      </c>
+      <c r="AA17">
+        <v>77.540000000000006</v>
+      </c>
+      <c r="AC17">
+        <v>2.86</v>
+      </c>
+      <c r="AD17">
+        <v>72.86</v>
+      </c>
+      <c r="AG17">
+        <v>2.95</v>
+      </c>
+      <c r="AH17">
+        <v>79.069999999999993</v>
+      </c>
+      <c r="AK17">
+        <v>2.9</v>
+      </c>
+      <c r="AL17">
+        <v>78.27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2.91</v>
       </c>
@@ -2850,8 +3251,44 @@
       <c r="P18">
         <v>75.430000000000007</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S18">
+        <v>2.95</v>
+      </c>
+      <c r="T18">
+        <v>76.430000000000007</v>
+      </c>
+      <c r="W18">
+        <v>2.92</v>
+      </c>
+      <c r="X18">
+        <v>90.87</v>
+      </c>
+      <c r="Z18">
+        <v>2.91</v>
+      </c>
+      <c r="AA18">
+        <v>75.959999999999994</v>
+      </c>
+      <c r="AC18">
+        <v>2.83</v>
+      </c>
+      <c r="AD18">
+        <v>68.45</v>
+      </c>
+      <c r="AG18">
+        <v>2.93</v>
+      </c>
+      <c r="AH18">
+        <v>75.44</v>
+      </c>
+      <c r="AK18">
+        <v>2.86</v>
+      </c>
+      <c r="AL18">
+        <v>74.599999999999994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2.94</v>
       </c>
@@ -2876,8 +3313,44 @@
       <c r="P19">
         <v>71.849999999999994</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S19">
+        <v>2.91</v>
+      </c>
+      <c r="T19">
+        <v>71.41</v>
+      </c>
+      <c r="W19">
+        <v>2.95</v>
+      </c>
+      <c r="X19">
+        <v>84.13</v>
+      </c>
+      <c r="Z19">
+        <v>2.86</v>
+      </c>
+      <c r="AA19">
+        <v>73.59</v>
+      </c>
+      <c r="AC19">
+        <v>2.78</v>
+      </c>
+      <c r="AD19">
+        <v>62.02</v>
+      </c>
+      <c r="AG19">
+        <v>2.88</v>
+      </c>
+      <c r="AH19">
+        <v>69.81</v>
+      </c>
+      <c r="AK19">
+        <v>2.81</v>
+      </c>
+      <c r="AL19">
+        <v>69.239999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2.96</v>
       </c>
@@ -2902,8 +3375,44 @@
       <c r="P20">
         <v>67.400000000000006</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S20">
+        <v>2.79</v>
+      </c>
+      <c r="T20">
+        <v>70.8</v>
+      </c>
+      <c r="W20">
+        <v>2.95</v>
+      </c>
+      <c r="X20">
+        <v>76.430000000000007</v>
+      </c>
+      <c r="Z20">
+        <v>2.74</v>
+      </c>
+      <c r="AA20">
+        <v>68.23</v>
+      </c>
+      <c r="AC20">
+        <v>2.68</v>
+      </c>
+      <c r="AD20">
+        <v>55.91</v>
+      </c>
+      <c r="AG20">
+        <v>2.77</v>
+      </c>
+      <c r="AH20">
+        <v>69.37</v>
+      </c>
+      <c r="AK20">
+        <v>2.72</v>
+      </c>
+      <c r="AL20">
+        <v>65.959999999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2.96</v>
       </c>
@@ -2928,8 +3437,44 @@
       <c r="P21">
         <v>66.64</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S21">
+        <v>2.7</v>
+      </c>
+      <c r="T21">
+        <v>68.650000000000006</v>
+      </c>
+      <c r="W21">
+        <v>2.96</v>
+      </c>
+      <c r="X21">
+        <v>82.76</v>
+      </c>
+      <c r="Z21">
+        <v>2.67</v>
+      </c>
+      <c r="AA21">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="AC21">
+        <v>2.61</v>
+      </c>
+      <c r="AD21">
+        <v>61.61</v>
+      </c>
+      <c r="AG21">
+        <v>2.69</v>
+      </c>
+      <c r="AH21">
+        <v>68.75</v>
+      </c>
+      <c r="AK21">
+        <v>2.64</v>
+      </c>
+      <c r="AL21">
+        <v>63.61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2.97</v>
       </c>
@@ -2954,10 +3499,46 @@
       <c r="P22">
         <v>60.71</v>
       </c>
+      <c r="S22">
+        <v>2.66</v>
+      </c>
+      <c r="T22">
+        <v>72.06</v>
+      </c>
+      <c r="W22">
+        <v>2.96</v>
+      </c>
+      <c r="X22">
+        <v>79.8</v>
+      </c>
+      <c r="Z22">
+        <v>2.61</v>
+      </c>
+      <c r="AA22">
+        <v>58.15</v>
+      </c>
+      <c r="AC22">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="AD22">
+        <v>60.92</v>
+      </c>
+      <c r="AG22">
+        <v>2.63</v>
+      </c>
+      <c r="AH22">
+        <v>68.73</v>
+      </c>
+      <c r="AK22">
+        <v>2.57</v>
+      </c>
+      <c r="AL22">
+        <v>64.260000000000005</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="G4:H22">
-    <sortCondition ref="G4:G22"/>
+  <sortState ref="W4:X22">
+    <sortCondition ref="W4:W22"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/621/Assignment4/Question2/swap_data.xlsx
+++ b/621/Assignment4/Question2/swap_data.xlsx
@@ -13,14 +13,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>Maturity</t>
   </si>
@@ -34,12 +33,6 @@
     <t>Vol</t>
   </si>
   <si>
-    <t>3 years</t>
-  </si>
-  <si>
-    <t>12 years</t>
-  </si>
-  <si>
     <t>1Mo</t>
   </si>
   <si>
@@ -97,31 +90,10 @@
     <t>30Yr</t>
   </si>
   <si>
-    <t xml:space="preserve">Sorted </t>
-  </si>
-  <si>
-    <t>Unsorted</t>
-  </si>
-  <si>
     <t>Spot Price, F</t>
   </si>
   <si>
-    <t>4years</t>
-  </si>
-  <si>
-    <t>Sorted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unsorted </t>
-  </si>
-  <si>
-    <t>10 years</t>
-  </si>
-  <si>
-    <t>20 years</t>
-  </si>
-  <si>
-    <t>7 years</t>
+    <t>The data on this sheet is obtained from the '2017_2_15_mid' worksheet. We have selected 10 year and 12 year maturity  for the study</t>
   </si>
 </sst>
 </file>
@@ -289,7 +261,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -496,6 +468,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,7 +655,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -699,11 +677,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1064,7 +1043,7 @@
   <dimension ref="A1:BH48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1086,62 +1065,62 @@
     </row>
     <row r="2" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="I2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="J2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="K2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="L2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="M2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="N2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="O2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="P2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="Q2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="R2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="S2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="T2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="U2" s="12" t="s">
         <v>22</v>
-      </c>
-      <c r="T2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U2" s="13" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1151,61 +1130,61 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>2.44</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>2.48</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>2.52</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>2.56</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <v>2.6</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="10">
         <v>2.72</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="10">
         <v>2.8</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="10">
         <v>2.85</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="10">
         <v>2.9</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="10">
         <v>2.92</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="10">
         <v>2.93</v>
       </c>
-      <c r="N3" s="11">
+      <c r="N3" s="10">
         <v>2.94</v>
       </c>
-      <c r="O3" s="11">
+      <c r="O3" s="10">
         <v>2.95</v>
       </c>
-      <c r="P3" s="12">
+      <c r="P3" s="11">
         <v>2.94</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="10">
         <v>2.91</v>
       </c>
-      <c r="R3" s="11">
+      <c r="R3" s="10">
         <v>2.86</v>
       </c>
-      <c r="S3" s="11">
+      <c r="S3" s="10">
         <v>2.74</v>
       </c>
-      <c r="T3" s="11">
+      <c r="T3" s="10">
         <v>2.67</v>
       </c>
-      <c r="U3" s="11">
+      <c r="U3" s="10">
         <v>2.61</v>
       </c>
       <c r="V3"/>
@@ -1248,61 +1227,61 @@
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>72.92</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>81.33</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>84.4</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>85.65</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <v>86.28</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="10">
         <v>87.02</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="10">
         <v>87.87</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="10">
         <v>87.31</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="10">
         <v>90.62</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="10">
         <v>85.17</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="10">
         <v>83.76</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="10">
         <v>81.19</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="10">
         <v>79.22</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="10">
         <v>77.540000000000006</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="Q4" s="10">
         <v>75.959999999999994</v>
       </c>
-      <c r="R4" s="11">
+      <c r="R4" s="10">
         <v>73.59</v>
       </c>
-      <c r="S4" s="11">
+      <c r="S4" s="10">
         <v>68.23</v>
       </c>
-      <c r="T4" s="11">
+      <c r="T4" s="10">
         <v>68.599999999999994</v>
       </c>
-      <c r="U4" s="11">
+      <c r="U4" s="10">
         <v>58.15</v>
       </c>
     </row>
@@ -1342,9 +1321,9 @@
     </row>
     <row r="6" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="12">
+        <v>23</v>
+      </c>
+      <c r="B6" s="11">
         <v>2.94</v>
       </c>
       <c r="C6" s="1"/>
@@ -1649,62 +1628,62 @@
     </row>
     <row r="18" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="F18" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="G18" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="H18" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="I18" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="J18" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I18" s="13" t="s">
+      <c r="K18" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J18" s="13" t="s">
+      <c r="L18" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K18" s="13" t="s">
+      <c r="M18" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="L18" s="13" t="s">
+      <c r="N18" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="M18" s="13" t="s">
+      <c r="O18" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="N18" s="13" t="s">
+      <c r="P18" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="O18" s="13" t="s">
+      <c r="Q18" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="P18" s="13" t="s">
+      <c r="R18" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="13" t="s">
+      <c r="S18" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="R18" s="13" t="s">
+      <c r="T18" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="S18" s="13" t="s">
+      <c r="U18" s="12" t="s">
         <v>22</v>
-      </c>
-      <c r="T18" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U18" s="13" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:60" x14ac:dyDescent="0.25">
@@ -1714,61 +1693,61 @@
       <c r="B19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="9">
         <v>2.52</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="9">
         <v>2.5499999999999998</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="9">
         <v>2.59</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="9">
         <v>2.62</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="9">
         <v>2.65</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="9">
         <v>2.75</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="9">
         <v>2.82</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="9">
         <v>2.87</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K19" s="9">
         <v>2.9</v>
       </c>
-      <c r="L19" s="10">
+      <c r="L19" s="9">
         <v>2.92</v>
       </c>
-      <c r="M19" s="10">
+      <c r="M19" s="9">
         <v>2.93</v>
       </c>
-      <c r="N19" s="10">
+      <c r="N19" s="9">
         <v>2.94</v>
       </c>
-      <c r="O19" s="10">
+      <c r="O19" s="9">
         <v>2.93</v>
       </c>
-      <c r="P19" s="10">
+      <c r="P19" s="9">
         <v>2.92</v>
       </c>
-      <c r="Q19" s="12">
+      <c r="Q19" s="11">
         <v>2.89</v>
       </c>
-      <c r="R19" s="10">
+      <c r="R19" s="9">
         <v>2.84</v>
       </c>
-      <c r="S19" s="10">
+      <c r="S19" s="9">
         <v>2.73</v>
       </c>
-      <c r="T19" s="10">
+      <c r="T19" s="9">
         <v>2.66</v>
       </c>
-      <c r="U19" s="10">
+      <c r="U19" s="9">
         <v>2.59</v>
       </c>
       <c r="W19" s="1"/>
@@ -1817,61 +1796,61 @@
       <c r="B20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="9">
         <v>73.680000000000007</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="9">
         <v>80.44</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="9">
         <v>83.64</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="9">
         <v>85</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="9">
         <v>85.38</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="9">
         <v>86.76</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="9">
         <v>86.79</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J20" s="9">
         <v>87.34</v>
       </c>
-      <c r="K20" s="10">
+      <c r="K20" s="9">
         <v>89.2</v>
       </c>
-      <c r="L20" s="10">
+      <c r="L20" s="9">
         <v>83.26</v>
       </c>
-      <c r="M20" s="10">
+      <c r="M20" s="9">
         <v>84.04</v>
       </c>
-      <c r="N20" s="10">
+      <c r="N20" s="9">
         <v>79.489999999999995</v>
       </c>
-      <c r="O20" s="10">
+      <c r="O20" s="9">
         <v>77.540000000000006</v>
       </c>
-      <c r="P20" s="10">
+      <c r="P20" s="9">
         <v>77.81</v>
       </c>
-      <c r="Q20" s="10">
+      <c r="Q20" s="9">
         <v>75.430000000000007</v>
       </c>
-      <c r="R20" s="10">
+      <c r="R20" s="9">
         <v>71.849999999999994</v>
       </c>
-      <c r="S20" s="10">
+      <c r="S20" s="9">
         <v>67.400000000000006</v>
       </c>
-      <c r="T20" s="10">
+      <c r="T20" s="9">
         <v>66.64</v>
       </c>
-      <c r="U20" s="10">
+      <c r="U20" s="9">
         <v>60.71</v>
       </c>
     </row>
@@ -1942,9 +1921,9 @@
     </row>
     <row r="23" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="12">
+        <v>23</v>
+      </c>
+      <c r="B23" s="11">
         <v>2.89</v>
       </c>
       <c r="C23" s="1"/>
@@ -2050,6 +2029,19 @@
     </row>
     <row r="26" spans="1:60" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
+      <c r="E26" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
     </row>
     <row r="27" spans="1:60" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
@@ -2264,1282 +2256,4 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL22"/>
-  <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="S1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T1" t="s">
-        <v>28</v>
-      </c>
-      <c r="W1" t="s">
-        <v>29</v>
-      </c>
-      <c r="X1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD1" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH1" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK1" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="AL1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="L2">
-        <v>2.58</v>
-      </c>
-      <c r="O2">
-        <v>2.89</v>
-      </c>
-      <c r="Z2">
-        <v>2.94</v>
-      </c>
-      <c r="AC2">
-        <v>2.68</v>
-      </c>
-      <c r="AG2">
-        <v>2.93</v>
-      </c>
-      <c r="AK2">
-        <v>2.81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1.83</v>
-      </c>
-      <c r="B4">
-        <v>41.98</v>
-      </c>
-      <c r="G4">
-        <v>2.52</v>
-      </c>
-      <c r="H4">
-        <v>73.680000000000007</v>
-      </c>
-      <c r="L4">
-        <v>1.83</v>
-      </c>
-      <c r="M4">
-        <v>41.98</v>
-      </c>
-      <c r="O4">
-        <v>2.52</v>
-      </c>
-      <c r="P4">
-        <v>73.680000000000007</v>
-      </c>
-      <c r="S4">
-        <v>1.98</v>
-      </c>
-      <c r="T4">
-        <v>65.02</v>
-      </c>
-      <c r="W4">
-        <v>1.98</v>
-      </c>
-      <c r="X4">
-        <v>65.02</v>
-      </c>
-      <c r="Z4">
-        <v>2.44</v>
-      </c>
-      <c r="AA4">
-        <v>72.92</v>
-      </c>
-      <c r="AC4">
-        <v>2.66</v>
-      </c>
-      <c r="AD4">
-        <v>73.12</v>
-      </c>
-      <c r="AG4">
-        <v>2.27</v>
-      </c>
-      <c r="AH4">
-        <v>75.92</v>
-      </c>
-      <c r="AK4">
-        <v>2.6</v>
-      </c>
-      <c r="AL4">
-        <v>73.569999999999993</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1.9</v>
-      </c>
-      <c r="B5">
-        <v>65.36</v>
-      </c>
-      <c r="G5">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="H5">
-        <v>80.44</v>
-      </c>
-      <c r="L5">
-        <v>1.9</v>
-      </c>
-      <c r="M5">
-        <v>65.36</v>
-      </c>
-      <c r="O5">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="P5">
-        <v>80.44</v>
-      </c>
-      <c r="S5">
-        <v>2.04</v>
-      </c>
-      <c r="T5">
-        <v>74.23</v>
-      </c>
-      <c r="W5">
-        <v>2.04</v>
-      </c>
-      <c r="X5">
-        <v>74.23</v>
-      </c>
-      <c r="Z5">
-        <v>2.48</v>
-      </c>
-      <c r="AA5">
-        <v>81.33</v>
-      </c>
-      <c r="AC5">
-        <v>2.68</v>
-      </c>
-      <c r="AD5">
-        <v>77.47</v>
-      </c>
-      <c r="AG5">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="AH5">
-        <v>76.72</v>
-      </c>
-      <c r="AK5">
-        <v>2.62</v>
-      </c>
-      <c r="AL5">
-        <v>77.75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>67.08</v>
-      </c>
-      <c r="G6">
-        <v>2.59</v>
-      </c>
-      <c r="H6">
-        <v>83.64</v>
-      </c>
-      <c r="L6">
-        <v>2</v>
-      </c>
-      <c r="M6">
-        <v>67.08</v>
-      </c>
-      <c r="O6">
-        <v>2.59</v>
-      </c>
-      <c r="P6">
-        <v>83.64</v>
-      </c>
-      <c r="S6">
-        <v>2.12</v>
-      </c>
-      <c r="T6">
-        <v>75.010000000000005</v>
-      </c>
-      <c r="W6">
-        <v>2.12</v>
-      </c>
-      <c r="X6">
-        <v>75.010000000000005</v>
-      </c>
-      <c r="Z6">
-        <v>2.52</v>
-      </c>
-      <c r="AA6">
-        <v>84.4</v>
-      </c>
-      <c r="AC6">
-        <v>2.7</v>
-      </c>
-      <c r="AD6">
-        <v>84.39</v>
-      </c>
-      <c r="AG6">
-        <v>2.37</v>
-      </c>
-      <c r="AH6">
-        <v>83.3</v>
-      </c>
-      <c r="AK6">
-        <v>2.65</v>
-      </c>
-      <c r="AL6">
-        <v>81.400000000000006</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2.09</v>
-      </c>
-      <c r="B7">
-        <v>70.569999999999993</v>
-      </c>
-      <c r="G7">
-        <v>2.59</v>
-      </c>
-      <c r="H7">
-        <v>60.71</v>
-      </c>
-      <c r="L7">
-        <v>2.09</v>
-      </c>
-      <c r="M7">
-        <v>70.569999999999993</v>
-      </c>
-      <c r="O7">
-        <v>2.62</v>
-      </c>
-      <c r="P7">
-        <v>85</v>
-      </c>
-      <c r="S7">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="T7">
-        <v>71.25</v>
-      </c>
-      <c r="W7">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="X7">
-        <v>71.25</v>
-      </c>
-      <c r="Z7">
-        <v>2.56</v>
-      </c>
-      <c r="AA7">
-        <v>85.65</v>
-      </c>
-      <c r="AC7">
-        <v>2.72</v>
-      </c>
-      <c r="AD7">
-        <v>82.08</v>
-      </c>
-      <c r="AG7">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="AH7">
-        <v>84.96</v>
-      </c>
-      <c r="AK7">
-        <v>2.68</v>
-      </c>
-      <c r="AL7">
-        <v>83.03</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2.17</v>
-      </c>
-      <c r="B8">
-        <v>76.17</v>
-      </c>
-      <c r="G8">
-        <v>2.62</v>
-      </c>
-      <c r="H8">
-        <v>85</v>
-      </c>
-      <c r="L8">
-        <v>2.17</v>
-      </c>
-      <c r="M8">
-        <v>76.17</v>
-      </c>
-      <c r="O8">
-        <v>2.65</v>
-      </c>
-      <c r="P8">
-        <v>85.38</v>
-      </c>
-      <c r="S8">
-        <v>2.27</v>
-      </c>
-      <c r="T8">
-        <v>74.83</v>
-      </c>
-      <c r="W8">
-        <v>2.27</v>
-      </c>
-      <c r="X8">
-        <v>74.83</v>
-      </c>
-      <c r="Z8">
-        <v>2.6</v>
-      </c>
-      <c r="AA8">
-        <v>86.28</v>
-      </c>
-      <c r="AC8">
-        <v>2.74</v>
-      </c>
-      <c r="AD8">
-        <v>82.26</v>
-      </c>
-      <c r="AG8">
-        <v>2.48</v>
-      </c>
-      <c r="AH8">
-        <v>85.28</v>
-      </c>
-      <c r="AK8">
-        <v>2.7</v>
-      </c>
-      <c r="AL8">
-        <v>83.22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2.42</v>
-      </c>
-      <c r="B9">
-        <v>84.47</v>
-      </c>
-      <c r="G9">
-        <v>2.65</v>
-      </c>
-      <c r="H9">
-        <v>85.38</v>
-      </c>
-      <c r="L9">
-        <v>2.42</v>
-      </c>
-      <c r="M9">
-        <v>84.47</v>
-      </c>
-      <c r="O9">
-        <v>2.75</v>
-      </c>
-      <c r="P9">
-        <v>86.76</v>
-      </c>
-      <c r="S9">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="T9">
-        <v>79.760000000000005</v>
-      </c>
-      <c r="W9">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="X9">
-        <v>79.760000000000005</v>
-      </c>
-      <c r="Z9">
-        <v>2.72</v>
-      </c>
-      <c r="AA9">
-        <v>87.02</v>
-      </c>
-      <c r="AC9">
-        <v>2.8</v>
-      </c>
-      <c r="AD9">
-        <v>84.18</v>
-      </c>
-      <c r="AG9">
-        <v>2.63</v>
-      </c>
-      <c r="AH9">
-        <v>83.29</v>
-      </c>
-      <c r="AK9">
-        <v>2.78</v>
-      </c>
-      <c r="AL9">
-        <v>85.88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2.58</v>
-      </c>
-      <c r="B10">
-        <v>87.45</v>
-      </c>
-      <c r="G10">
-        <v>2.66</v>
-      </c>
-      <c r="H10">
-        <v>66.64</v>
-      </c>
-      <c r="L10">
-        <v>2.58</v>
-      </c>
-      <c r="M10">
-        <v>87.45</v>
-      </c>
-      <c r="O10">
-        <v>2.82</v>
-      </c>
-      <c r="P10">
-        <v>86.79</v>
-      </c>
-      <c r="S10">
-        <v>2.63</v>
-      </c>
-      <c r="T10">
-        <v>87.19</v>
-      </c>
-      <c r="W10">
-        <v>2.63</v>
-      </c>
-      <c r="X10">
-        <v>87.19</v>
-      </c>
-      <c r="Z10">
-        <v>2.8</v>
-      </c>
-      <c r="AA10">
-        <v>87.87</v>
-      </c>
-      <c r="AC10">
-        <v>2.84</v>
-      </c>
-      <c r="AD10">
-        <v>82.63</v>
-      </c>
-      <c r="AG10">
-        <v>2.74</v>
-      </c>
-      <c r="AH10">
-        <v>88.45</v>
-      </c>
-      <c r="AK10">
-        <v>2.84</v>
-      </c>
-      <c r="AL10">
-        <v>84.54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2.67</v>
-      </c>
-      <c r="B11">
-        <v>73.099999999999994</v>
-      </c>
-      <c r="G11">
-        <v>2.73</v>
-      </c>
-      <c r="H11">
-        <v>67.400000000000006</v>
-      </c>
-      <c r="L11">
-        <v>2.69</v>
-      </c>
-      <c r="M11">
-        <v>91.49</v>
-      </c>
-      <c r="O11">
-        <v>2.87</v>
-      </c>
-      <c r="P11">
-        <v>87.34</v>
-      </c>
-      <c r="S11">
-        <v>2.73</v>
-      </c>
-      <c r="T11">
-        <v>90.47</v>
-      </c>
-      <c r="W11">
-        <v>2.66</v>
-      </c>
-      <c r="X11">
-        <v>72.06</v>
-      </c>
-      <c r="Z11">
-        <v>2.85</v>
-      </c>
-      <c r="AA11">
-        <v>87.31</v>
-      </c>
-      <c r="AC11">
-        <v>2.86</v>
-      </c>
-      <c r="AD11">
-        <v>81.349999999999994</v>
-      </c>
-      <c r="AG11">
-        <v>2.81</v>
-      </c>
-      <c r="AH11">
-        <v>89.22</v>
-      </c>
-      <c r="AK11">
-        <v>2.87</v>
-      </c>
-      <c r="AL11">
-        <v>87.05</v>
-      </c>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2.69</v>
-      </c>
-      <c r="B12">
-        <v>91.49</v>
-      </c>
-      <c r="G12">
-        <v>2.75</v>
-      </c>
-      <c r="H12">
-        <v>86.76</v>
-      </c>
-      <c r="L12">
-        <v>2.78</v>
-      </c>
-      <c r="M12">
-        <v>90.5</v>
-      </c>
-      <c r="O12">
-        <v>2.9</v>
-      </c>
-      <c r="P12">
-        <v>89.2</v>
-      </c>
-      <c r="S12">
-        <v>2.81</v>
-      </c>
-      <c r="T12">
-        <v>90.08</v>
-      </c>
-      <c r="W12">
-        <v>2.7</v>
-      </c>
-      <c r="X12">
-        <v>68.650000000000006</v>
-      </c>
-      <c r="Z12">
-        <v>2.9</v>
-      </c>
-      <c r="AA12">
-        <v>90.62</v>
-      </c>
-      <c r="AC12">
-        <v>2.88</v>
-      </c>
-      <c r="AD12">
-        <v>83.39</v>
-      </c>
-      <c r="AG12">
-        <v>2.87</v>
-      </c>
-      <c r="AH12">
-        <v>88.66</v>
-      </c>
-      <c r="AK12">
-        <v>2.9</v>
-      </c>
-      <c r="AL12">
-        <v>87.11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2.71</v>
-      </c>
-      <c r="B13">
-        <v>69.94</v>
-      </c>
-      <c r="G13">
-        <v>2.82</v>
-      </c>
-      <c r="H13">
-        <v>86.79</v>
-      </c>
-      <c r="L13">
-        <v>2.84</v>
-      </c>
-      <c r="M13">
-        <v>89.56</v>
-      </c>
-      <c r="O13">
-        <v>2.92</v>
-      </c>
-      <c r="P13">
-        <v>83.26</v>
-      </c>
-      <c r="S13">
-        <v>2.87</v>
-      </c>
-      <c r="T13">
-        <v>89.07</v>
-      </c>
-      <c r="W13">
-        <v>2.73</v>
-      </c>
-      <c r="X13">
-        <v>90.47</v>
-      </c>
-      <c r="Z13">
-        <v>2.92</v>
-      </c>
-      <c r="AA13">
-        <v>85.17</v>
-      </c>
-      <c r="AC13">
-        <v>2.88</v>
-      </c>
-      <c r="AD13">
-        <v>78.349999999999994</v>
-      </c>
-      <c r="AG13">
-        <v>2.91</v>
-      </c>
-      <c r="AH13">
-        <v>86.92</v>
-      </c>
-      <c r="AK13">
-        <v>2.91</v>
-      </c>
-      <c r="AL13">
-        <v>80.33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2.78</v>
-      </c>
-      <c r="B14">
-        <v>90.5</v>
-      </c>
-      <c r="G14">
-        <v>2.84</v>
-      </c>
-      <c r="H14">
-        <v>71.849999999999994</v>
-      </c>
-      <c r="L14">
-        <v>2.9</v>
-      </c>
-      <c r="M14">
-        <v>88.02</v>
-      </c>
-      <c r="O14">
-        <v>2.93</v>
-      </c>
-      <c r="P14">
-        <v>84.04</v>
-      </c>
-      <c r="S14">
-        <v>2.92</v>
-      </c>
-      <c r="T14">
-        <v>90.87</v>
-      </c>
-      <c r="W14">
-        <v>2.79</v>
-      </c>
-      <c r="X14">
-        <v>70.8</v>
-      </c>
-      <c r="Z14">
-        <v>2.93</v>
-      </c>
-      <c r="AA14">
-        <v>83.76</v>
-      </c>
-      <c r="AC14">
-        <v>2.88</v>
-      </c>
-      <c r="AD14">
-        <v>79.290000000000006</v>
-      </c>
-      <c r="AG14">
-        <v>2.93</v>
-      </c>
-      <c r="AH14">
-        <v>85.81</v>
-      </c>
-      <c r="AK14">
-        <v>2.92</v>
-      </c>
-      <c r="AL14">
-        <v>84.15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2.79</v>
-      </c>
-      <c r="B15">
-        <v>72.59</v>
-      </c>
-      <c r="G15">
-        <v>2.87</v>
-      </c>
-      <c r="H15">
-        <v>87.34</v>
-      </c>
-      <c r="L15">
-        <v>2.94</v>
-      </c>
-      <c r="M15">
-        <v>86.14</v>
-      </c>
-      <c r="O15">
-        <v>2.94</v>
-      </c>
-      <c r="P15">
-        <v>79.489999999999995</v>
-      </c>
-      <c r="S15">
-        <v>2.95</v>
-      </c>
-      <c r="T15">
-        <v>84.13</v>
-      </c>
-      <c r="W15">
-        <v>2.81</v>
-      </c>
-      <c r="X15">
-        <v>90.08</v>
-      </c>
-      <c r="Z15">
-        <v>2.94</v>
-      </c>
-      <c r="AA15">
-        <v>81.19</v>
-      </c>
-      <c r="AC15">
-        <v>2.88</v>
-      </c>
-      <c r="AD15">
-        <v>74.78</v>
-      </c>
-      <c r="AG15">
-        <v>2.95</v>
-      </c>
-      <c r="AH15">
-        <v>83.34</v>
-      </c>
-      <c r="AK15">
-        <v>2.91</v>
-      </c>
-      <c r="AL15">
-        <v>76.680000000000007</v>
-      </c>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2.84</v>
-      </c>
-      <c r="B16">
-        <v>89.56</v>
-      </c>
-      <c r="G16">
-        <v>2.89</v>
-      </c>
-      <c r="H16">
-        <v>75.430000000000007</v>
-      </c>
-      <c r="L16">
-        <v>2.97</v>
-      </c>
-      <c r="M16">
-        <v>83.02</v>
-      </c>
-      <c r="O16">
-        <v>2.93</v>
-      </c>
-      <c r="P16">
-        <v>77.540000000000006</v>
-      </c>
-      <c r="S16">
-        <v>2.96</v>
-      </c>
-      <c r="T16">
-        <v>82.76</v>
-      </c>
-      <c r="W16">
-        <v>2.87</v>
-      </c>
-      <c r="X16">
-        <v>89.07</v>
-      </c>
-      <c r="Z16">
-        <v>2.95</v>
-      </c>
-      <c r="AA16">
-        <v>79.22</v>
-      </c>
-      <c r="AC16">
-        <v>2.87</v>
-      </c>
-      <c r="AD16">
-        <v>72.56</v>
-      </c>
-      <c r="AG16">
-        <v>2.96</v>
-      </c>
-      <c r="AH16">
-        <v>81.19</v>
-      </c>
-      <c r="AK16">
-        <v>2.91</v>
-      </c>
-      <c r="AL16">
-        <v>74.87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2.9</v>
-      </c>
-      <c r="B17">
-        <v>88.02</v>
-      </c>
-      <c r="G17">
-        <v>2.9</v>
-      </c>
-      <c r="H17">
-        <v>89.2</v>
-      </c>
-      <c r="L17">
-        <v>2.96</v>
-      </c>
-      <c r="M17">
-        <v>80.069999999999993</v>
-      </c>
-      <c r="O17">
-        <v>2.92</v>
-      </c>
-      <c r="P17">
-        <v>77.81</v>
-      </c>
-      <c r="S17">
-        <v>2.96</v>
-      </c>
-      <c r="T17">
-        <v>79.8</v>
-      </c>
-      <c r="W17">
-        <v>2.91</v>
-      </c>
-      <c r="X17">
-        <v>71.41</v>
-      </c>
-      <c r="Z17">
-        <v>2.94</v>
-      </c>
-      <c r="AA17">
-        <v>77.540000000000006</v>
-      </c>
-      <c r="AC17">
-        <v>2.86</v>
-      </c>
-      <c r="AD17">
-        <v>72.86</v>
-      </c>
-      <c r="AG17">
-        <v>2.95</v>
-      </c>
-      <c r="AH17">
-        <v>79.069999999999993</v>
-      </c>
-      <c r="AK17">
-        <v>2.9</v>
-      </c>
-      <c r="AL17">
-        <v>78.27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2.91</v>
-      </c>
-      <c r="B18">
-        <v>77.61</v>
-      </c>
-      <c r="G18">
-        <v>2.92</v>
-      </c>
-      <c r="H18">
-        <v>83.26</v>
-      </c>
-      <c r="L18">
-        <v>2.96</v>
-      </c>
-      <c r="M18">
-        <v>79.39</v>
-      </c>
-      <c r="O18">
-        <v>2.89</v>
-      </c>
-      <c r="P18">
-        <v>75.430000000000007</v>
-      </c>
-      <c r="S18">
-        <v>2.95</v>
-      </c>
-      <c r="T18">
-        <v>76.430000000000007</v>
-      </c>
-      <c r="W18">
-        <v>2.92</v>
-      </c>
-      <c r="X18">
-        <v>90.87</v>
-      </c>
-      <c r="Z18">
-        <v>2.91</v>
-      </c>
-      <c r="AA18">
-        <v>75.959999999999994</v>
-      </c>
-      <c r="AC18">
-        <v>2.83</v>
-      </c>
-      <c r="AD18">
-        <v>68.45</v>
-      </c>
-      <c r="AG18">
-        <v>2.93</v>
-      </c>
-      <c r="AH18">
-        <v>75.44</v>
-      </c>
-      <c r="AK18">
-        <v>2.86</v>
-      </c>
-      <c r="AL18">
-        <v>74.599999999999994</v>
-      </c>
-    </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2.94</v>
-      </c>
-      <c r="B19">
-        <v>86.14</v>
-      </c>
-      <c r="G19">
-        <v>2.92</v>
-      </c>
-      <c r="H19">
-        <v>77.81</v>
-      </c>
-      <c r="L19">
-        <v>2.91</v>
-      </c>
-      <c r="M19">
-        <v>77.61</v>
-      </c>
-      <c r="O19">
-        <v>2.84</v>
-      </c>
-      <c r="P19">
-        <v>71.849999999999994</v>
-      </c>
-      <c r="S19">
-        <v>2.91</v>
-      </c>
-      <c r="T19">
-        <v>71.41</v>
-      </c>
-      <c r="W19">
-        <v>2.95</v>
-      </c>
-      <c r="X19">
-        <v>84.13</v>
-      </c>
-      <c r="Z19">
-        <v>2.86</v>
-      </c>
-      <c r="AA19">
-        <v>73.59</v>
-      </c>
-      <c r="AC19">
-        <v>2.78</v>
-      </c>
-      <c r="AD19">
-        <v>62.02</v>
-      </c>
-      <c r="AG19">
-        <v>2.88</v>
-      </c>
-      <c r="AH19">
-        <v>69.81</v>
-      </c>
-      <c r="AK19">
-        <v>2.81</v>
-      </c>
-      <c r="AL19">
-        <v>69.239999999999995</v>
-      </c>
-    </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2.96</v>
-      </c>
-      <c r="B20">
-        <v>80.069999999999993</v>
-      </c>
-      <c r="G20">
-        <v>2.93</v>
-      </c>
-      <c r="H20">
-        <v>84.04</v>
-      </c>
-      <c r="L20">
-        <v>2.79</v>
-      </c>
-      <c r="M20">
-        <v>72.59</v>
-      </c>
-      <c r="O20">
-        <v>2.73</v>
-      </c>
-      <c r="P20">
-        <v>67.400000000000006</v>
-      </c>
-      <c r="S20">
-        <v>2.79</v>
-      </c>
-      <c r="T20">
-        <v>70.8</v>
-      </c>
-      <c r="W20">
-        <v>2.95</v>
-      </c>
-      <c r="X20">
-        <v>76.430000000000007</v>
-      </c>
-      <c r="Z20">
-        <v>2.74</v>
-      </c>
-      <c r="AA20">
-        <v>68.23</v>
-      </c>
-      <c r="AC20">
-        <v>2.68</v>
-      </c>
-      <c r="AD20">
-        <v>55.91</v>
-      </c>
-      <c r="AG20">
-        <v>2.77</v>
-      </c>
-      <c r="AH20">
-        <v>69.37</v>
-      </c>
-      <c r="AK20">
-        <v>2.72</v>
-      </c>
-      <c r="AL20">
-        <v>65.959999999999994</v>
-      </c>
-    </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2.96</v>
-      </c>
-      <c r="B21">
-        <v>79.39</v>
-      </c>
-      <c r="G21">
-        <v>2.93</v>
-      </c>
-      <c r="H21">
-        <v>77.540000000000006</v>
-      </c>
-      <c r="L21">
-        <v>2.71</v>
-      </c>
-      <c r="M21">
-        <v>69.94</v>
-      </c>
-      <c r="O21">
-        <v>2.66</v>
-      </c>
-      <c r="P21">
-        <v>66.64</v>
-      </c>
-      <c r="S21">
-        <v>2.7</v>
-      </c>
-      <c r="T21">
-        <v>68.650000000000006</v>
-      </c>
-      <c r="W21">
-        <v>2.96</v>
-      </c>
-      <c r="X21">
-        <v>82.76</v>
-      </c>
-      <c r="Z21">
-        <v>2.67</v>
-      </c>
-      <c r="AA21">
-        <v>68.599999999999994</v>
-      </c>
-      <c r="AC21">
-        <v>2.61</v>
-      </c>
-      <c r="AD21">
-        <v>61.61</v>
-      </c>
-      <c r="AG21">
-        <v>2.69</v>
-      </c>
-      <c r="AH21">
-        <v>68.75</v>
-      </c>
-      <c r="AK21">
-        <v>2.64</v>
-      </c>
-      <c r="AL21">
-        <v>63.61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2.97</v>
-      </c>
-      <c r="B22">
-        <v>83.02</v>
-      </c>
-      <c r="G22">
-        <v>2.94</v>
-      </c>
-      <c r="H22">
-        <v>79.489999999999995</v>
-      </c>
-      <c r="L22">
-        <v>2.67</v>
-      </c>
-      <c r="M22">
-        <v>73.099999999999994</v>
-      </c>
-      <c r="O22">
-        <v>2.59</v>
-      </c>
-      <c r="P22">
-        <v>60.71</v>
-      </c>
-      <c r="S22">
-        <v>2.66</v>
-      </c>
-      <c r="T22">
-        <v>72.06</v>
-      </c>
-      <c r="W22">
-        <v>2.96</v>
-      </c>
-      <c r="X22">
-        <v>79.8</v>
-      </c>
-      <c r="Z22">
-        <v>2.61</v>
-      </c>
-      <c r="AA22">
-        <v>58.15</v>
-      </c>
-      <c r="AC22">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="AD22">
-        <v>60.92</v>
-      </c>
-      <c r="AG22">
-        <v>2.63</v>
-      </c>
-      <c r="AH22">
-        <v>68.73</v>
-      </c>
-      <c r="AK22">
-        <v>2.57</v>
-      </c>
-      <c r="AL22">
-        <v>64.260000000000005</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="W4:X22">
-    <sortCondition ref="W4:W22"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>